--- a/main/app/brm_core/uploads/BRMRulesLatest.xlsx
+++ b/main/app/brm_core/uploads/BRMRulesLatest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ark0006\source\repos\BRMOptimizer\main\app\brm_core\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ark0006\source\repos\BRMOptimizer\main\app\brm_core\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,12 +110,6 @@
     <t>STATION &lt; 9999</t>
   </si>
   <si>
-    <t xml:space="preserve">CAR_SERIES &lt;=  'MILW120209' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR_SERIES  &gt;=  'MILW120000' </t>
-  </si>
-  <si>
     <t xml:space="preserve"> starts_with(AAR_CAR_TYPE, "T")</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>AAR_CAR_TYPE,CAR_SERIES,SCS</t>
+  </si>
+  <si>
+    <t>exclude(CAR_SERIES ,"MILW") &lt;= 120209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude(CAR_SERIES ,"MILW" )&gt;= 120000 </t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,8 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="5" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
     <col min="6" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="47.7109375" customWidth="1"/>
   </cols>
@@ -547,10 +548,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -603,10 +604,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -656,10 +657,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -709,10 +710,10 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -856,7 +857,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
